--- a/.playwright-mcp/CUI-PMI-Schedule-20260120.xlsx
+++ b/.playwright-mcp/CUI-PMI-Schedule-20260120.xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 00:55:31Z</v>
+        <v>Generated: 2026-01-20 04:03:16Z</v>
       </c>
     </row>
     <row r="5">
@@ -683,10 +683,10 @@
         <v>52III</v>
       </c>
       <c r="G15" t="str">
-        <v>2026-05-19Z</v>
+        <v>2026-05-20Z</v>
       </c>
       <c r="H15" t="str">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I15" t="str">
         <v>-</v>

--- a/.playwright-mcp/CUI-PMI-Schedule-20260120.xlsx
+++ b/.playwright-mcp/CUI-PMI-Schedule-20260120.xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 04:03:16Z</v>
+        <v>Generated: 2026-01-20 05:01:09Z</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         <v>2026-01-18Z</v>
       </c>
       <c r="H9" t="str">
-        <v>2 overdue</v>
+        <v>3 overdue</v>
       </c>
       <c r="I9" t="str">
         <v>-</v>
@@ -526,7 +526,7 @@
         <v>2026-01-23Z</v>
       </c>
       <c r="H10" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="str">
         <v>-</v>
@@ -558,7 +558,7 @@
         <v>2026-01-27Z</v>
       </c>
       <c r="H11" t="str">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" t="str">
         <v>-</v>
@@ -590,7 +590,7 @@
         <v>2026-02-01Z</v>
       </c>
       <c r="H12" t="str">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" t="str">
         <v>-</v>
@@ -622,7 +622,7 @@
         <v>2026-02-10Z</v>
       </c>
       <c r="H13" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="str">
         <v>-</v>
@@ -654,7 +654,7 @@
         <v>2026-03-06Z</v>
       </c>
       <c r="H14" t="str">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" t="str">
         <v>-</v>
@@ -686,7 +686,7 @@
         <v>2026-05-20Z</v>
       </c>
       <c r="H15" t="str">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" t="str">
         <v>-</v>

--- a/.playwright-mcp/CUI-PMI-Schedule-20260120.xlsx
+++ b/.playwright-mcp/CUI-PMI-Schedule-20260120.xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 05:01:09Z</v>
+        <v>Generated: 2026-01-20 16:20:33Z</v>
       </c>
     </row>
     <row r="5">
